--- a/app/tables/maleClients/forms/partnerAllFields/partnerAllFields.xlsx
+++ b/app/tables/maleClients/forms/partnerAllFields/partnerAllFields.xlsx
@@ -918,6 +918,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\a0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1240,7 +1243,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1250,9 +1253,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1321,6 +1321,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="245">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1913,13 +1925,13 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="51.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="9" width="10.83203125" style="18"/>
+    <col min="9" max="9" width="10.83203125" style="17"/>
     <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -1927,13 +1939,13 @@
       <c r="A1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1948,7 +1960,7 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1974,11 +1986,11 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1987,7 +1999,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="15"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1996,34 +2008,34 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>146</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="45">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>147</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -2032,16 +2044,16 @@
       <c r="F5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="135">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="12" t="s">
         <v>148</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2049,28 +2061,28 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>149</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="45">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="12" t="s">
         <v>150</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -2078,10 +2090,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="90">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>151</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -2090,7 +2102,7 @@
       <c r="F9" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="17" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2098,19 +2110,19 @@
       <c r="A10" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>152</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>153</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -2118,10 +2130,10 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>154</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -2129,27 +2141,27 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="30">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2157,10 +2169,10 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>156</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2173,13 +2185,13 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="30">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>174</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -2187,10 +2199,10 @@
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>157</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2198,13 +2210,13 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="210">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>158</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -2213,42 +2225,42 @@
       <c r="H19" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="17" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>159</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="17"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="2:9" ht="30">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>160</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="17"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>161</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -2256,53 +2268,53 @@
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>162</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="17"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="2:9" ht="60">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>163</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="75">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>165</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -2310,11 +2322,11 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="75">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="12" t="s">
         <v>166</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -2325,13 +2337,13 @@
       </c>
     </row>
     <row r="28" spans="2:9" s="3" customFormat="1" ht="60">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>167</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -2340,41 +2352,41 @@
       <c r="F28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="16"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" spans="2:9" ht="45">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>174</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>168</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I29" s="17"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>169</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I30" s="17"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="2:9" ht="60">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="13" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="12" t="s">
         <v>170</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2382,10 +2394,10 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="30">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>171</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -2393,11 +2405,11 @@
       </c>
     </row>
     <row r="33" spans="2:17">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>145</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -2406,7 +2418,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="15"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2415,34 +2427,34 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="2:17" s="3" customFormat="1">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="19" t="s">
         <v>146</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="16"/>
+      <c r="I34" s="15"/>
     </row>
     <row r="35" spans="2:17" s="3" customFormat="1">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="16"/>
+      <c r="I35" s="15"/>
     </row>
     <row r="36" spans="2:17" s="3" customFormat="1" ht="45">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="19" t="s">
         <v>147</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -2451,477 +2463,477 @@
       <c r="F36" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="16" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="2:17" s="21" customFormat="1" ht="195" customHeight="1">
-      <c r="B37" s="22" t="s">
+    <row r="37" spans="2:17" s="20" customFormat="1" ht="195" customHeight="1">
+      <c r="B37" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-    </row>
-    <row r="38" spans="2:17" s="21" customFormat="1" ht="195" customHeight="1">
-      <c r="B38" s="11" t="s">
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+    </row>
+    <row r="38" spans="2:17" s="20" customFormat="1" ht="195" customHeight="1">
+      <c r="B38" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-    </row>
-    <row r="39" spans="2:17" s="21" customFormat="1">
-      <c r="B39" s="22" t="s">
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+    </row>
+    <row r="39" spans="2:17" s="20" customFormat="1">
+      <c r="B39" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="19" t="s">
+      <c r="C39" s="22"/>
+      <c r="D39" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-    </row>
-    <row r="40" spans="2:17" s="21" customFormat="1" ht="30">
-      <c r="B40" s="22" t="s">
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+    </row>
+    <row r="40" spans="2:17" s="20" customFormat="1" ht="30">
+      <c r="B40" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-    </row>
-    <row r="41" spans="2:17" s="21" customFormat="1" ht="30">
-      <c r="B41" s="22" t="s">
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+    </row>
+    <row r="41" spans="2:17" s="20" customFormat="1" ht="30">
+      <c r="B41" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="19" t="s">
+      <c r="C41" s="22"/>
+      <c r="D41" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-    </row>
-    <row r="42" spans="2:17" s="21" customFormat="1" ht="45">
-      <c r="B42" s="22" t="s">
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+    </row>
+    <row r="42" spans="2:17" s="20" customFormat="1" ht="45">
+      <c r="B42" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-    </row>
-    <row r="43" spans="2:17" s="21" customFormat="1">
-      <c r="B43" s="22" t="s">
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+    </row>
+    <row r="43" spans="2:17" s="20" customFormat="1">
+      <c r="B43" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-    </row>
-    <row r="44" spans="2:17" s="21" customFormat="1" ht="45">
-      <c r="B44" s="22" t="s">
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+    </row>
+    <row r="44" spans="2:17" s="20" customFormat="1" ht="45">
+      <c r="B44" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-    </row>
-    <row r="45" spans="2:17" s="21" customFormat="1" ht="45">
-      <c r="B45" s="22" t="s">
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+    </row>
+    <row r="45" spans="2:17" s="20" customFormat="1" ht="45">
+      <c r="B45" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-    </row>
-    <row r="46" spans="2:17" s="21" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B46" s="22" t="s">
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+    </row>
+    <row r="46" spans="2:17" s="20" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B46" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="19" t="s">
+      <c r="C46" s="22"/>
+      <c r="D46" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-    </row>
-    <row r="47" spans="2:17" s="21" customFormat="1">
-      <c r="B47" s="22" t="s">
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+    </row>
+    <row r="47" spans="2:17" s="20" customFormat="1">
+      <c r="B47" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="19" t="s">
+      <c r="C47" s="22"/>
+      <c r="D47" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-    </row>
-    <row r="48" spans="2:17" s="21" customFormat="1">
-      <c r="B48" s="22" t="s">
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+    </row>
+    <row r="48" spans="2:17" s="20" customFormat="1">
+      <c r="B48" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-    </row>
-    <row r="49" spans="2:18" s="21" customFormat="1" ht="30">
-      <c r="B49" s="22" t="s">
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+    </row>
+    <row r="49" spans="2:18" s="20" customFormat="1" ht="30">
+      <c r="B49" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-    </row>
-    <row r="50" spans="2:18" s="21" customFormat="1">
-      <c r="B50" s="22" t="s">
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+    </row>
+    <row r="50" spans="2:18" s="20" customFormat="1">
+      <c r="B50" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-    </row>
-    <row r="51" spans="2:18" s="21" customFormat="1">
-      <c r="B51" s="22" t="s">
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+    </row>
+    <row r="51" spans="2:18" s="20" customFormat="1">
+      <c r="B51" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-    </row>
-    <row r="52" spans="2:18" s="21" customFormat="1">
-      <c r="B52" s="22" t="s">
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+    </row>
+    <row r="52" spans="2:18" s="20" customFormat="1">
+      <c r="B52" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-    </row>
-    <row r="53" spans="2:18" s="21" customFormat="1">
-      <c r="B53" s="22" t="s">
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+    </row>
+    <row r="53" spans="2:18" s="20" customFormat="1">
+      <c r="B53" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-    </row>
-    <row r="54" spans="2:18" s="21" customFormat="1" ht="30">
-      <c r="B54" s="22" t="s">
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+    </row>
+    <row r="54" spans="2:18" s="20" customFormat="1" ht="30">
+      <c r="B54" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="19" t="s">
+      <c r="C54" s="22"/>
+      <c r="D54" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
     </row>
     <row r="55" spans="2:18" ht="90">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="18" t="s">
         <v>231</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2930,97 +2942,97 @@
       <c r="F55" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="R55" s="21"/>
+      <c r="R55" s="20"/>
     </row>
     <row r="56" spans="2:18">
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="18" t="s">
         <v>234</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="R56" s="21"/>
+      <c r="R56" s="20"/>
     </row>
     <row r="57" spans="2:18">
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="18" t="s">
         <v>236</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="R57" s="21"/>
+      <c r="R57" s="20"/>
     </row>
     <row r="58" spans="2:18">
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="18" t="s">
         <v>238</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="R58" s="21"/>
+      <c r="R58" s="20"/>
     </row>
     <row r="59" spans="2:18">
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="18" t="s">
         <v>240</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="R59" s="21"/>
+      <c r="R59" s="20"/>
     </row>
     <row r="60" spans="2:18">
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="18" t="s">
         <v>242</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="R60" s="21"/>
+      <c r="R60" s="20"/>
     </row>
     <row r="61" spans="2:18">
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="18" t="s">
         <v>244</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="R61" s="21"/>
+      <c r="R61" s="20"/>
     </row>
     <row r="62" spans="2:18" ht="30">
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="18" t="s">
         <v>246</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -3029,75 +3041,75 @@
       <c r="F62" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="R62" s="21"/>
+      <c r="R62" s="20"/>
     </row>
     <row r="63" spans="2:18">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="18" t="s">
         <v>249</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="R63" s="21"/>
-    </row>
-    <row r="64" spans="2:18" s="21" customFormat="1">
-      <c r="B64" s="11" t="s">
+      <c r="R63" s="20"/>
+    </row>
+    <row r="64" spans="2:18" s="20" customFormat="1">
+      <c r="B64" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="E64" s="21" t="s">
+      <c r="E64" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="I64" s="25"/>
-      <c r="Q64" s="23"/>
-    </row>
-    <row r="65" spans="2:17" s="21" customFormat="1">
-      <c r="B65" s="11" t="s">
+      <c r="I64" s="24"/>
+      <c r="Q64" s="22"/>
+    </row>
+    <row r="65" spans="2:17" s="20" customFormat="1">
+      <c r="B65" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="E65" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="I65" s="25"/>
-      <c r="Q65" s="23"/>
-    </row>
-    <row r="66" spans="2:17" s="21" customFormat="1" ht="30">
-      <c r="B66" s="22" t="s">
+      <c r="I65" s="24"/>
+      <c r="Q65" s="22"/>
+    </row>
+    <row r="66" spans="2:17" s="20" customFormat="1" ht="30">
+      <c r="B66" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="19" t="s">
+      <c r="C66" s="22"/>
+      <c r="D66" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="E66" s="23" t="s">
+      <c r="E66" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3114,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155:XFD160"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3141,7 +3153,7 @@
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="27">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3152,7 +3164,7 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="27">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3163,7 +3175,7 @@
       <c r="A4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="27">
         <v>888</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3174,7 +3186,7 @@
       <c r="A5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="27">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3185,7 +3197,7 @@
       <c r="A6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="27">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3196,7 +3208,7 @@
       <c r="A7" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="27">
         <v>888</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3207,7 +3219,7 @@
       <c r="A8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="27">
         <v>888</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3218,7 +3230,7 @@
       <c r="A9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="27">
         <v>999</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3229,7 +3241,7 @@
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="27">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3240,7 +3252,7 @@
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="27">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3251,7 +3263,7 @@
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="27">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3262,7 +3274,7 @@
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="27">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3273,7 +3285,7 @@
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="27">
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3284,7 +3296,7 @@
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="27">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3295,7 +3307,7 @@
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="27">
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -3306,7 +3318,7 @@
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="27">
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3317,7 +3329,7 @@
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="28">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3328,7 +3340,7 @@
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="28">
         <v>888</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3339,7 +3351,7 @@
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="27">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -3350,7 +3362,7 @@
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="27">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3361,7 +3373,7 @@
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="27">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3372,7 +3384,7 @@
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="27">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3383,7 +3395,7 @@
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="27">
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3394,7 +3406,7 @@
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="27">
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -3405,7 +3417,7 @@
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="27">
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3416,7 +3428,7 @@
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="27">
         <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -3427,7 +3439,7 @@
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="27">
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -3438,7 +3450,7 @@
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="27">
         <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3449,7 +3461,7 @@
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="27">
         <v>888</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -3460,7 +3472,7 @@
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="27">
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -3471,7 +3483,7 @@
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="27">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3482,7 +3494,7 @@
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="27">
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -3493,7 +3505,7 @@
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="27">
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -3504,7 +3516,7 @@
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="27">
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -3515,7 +3527,7 @@
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="27">
         <v>5</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -3526,7 +3538,7 @@
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="27">
         <v>6</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -3537,7 +3549,7 @@
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="27">
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -3548,7 +3560,7 @@
       <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="27">
         <v>888</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -3559,7 +3571,7 @@
       <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="27">
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -3570,7 +3582,7 @@
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="27">
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -3581,7 +3593,7 @@
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="27">
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -3592,7 +3604,7 @@
       <c r="A43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="27">
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -3603,7 +3615,7 @@
       <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="27">
         <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -3614,7 +3626,7 @@
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="27">
         <v>888</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -3625,7 +3637,7 @@
       <c r="A46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="27">
         <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3636,7 +3648,7 @@
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="27">
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -3647,7 +3659,7 @@
       <c r="A48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="27">
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -3658,7 +3670,7 @@
       <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="27">
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -3669,7 +3681,7 @@
       <c r="A50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="27">
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -3680,7 +3692,7 @@
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="27">
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3691,7 +3703,7 @@
       <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="27">
         <v>888</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -3702,7 +3714,7 @@
       <c r="A53" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="27">
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -3713,7 +3725,7 @@
       <c r="A54" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="27">
         <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3724,7 +3736,7 @@
       <c r="A55" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="27">
         <v>3</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -3735,7 +3747,7 @@
       <c r="A56" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="27">
         <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -3746,7 +3758,7 @@
       <c r="A57" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="27">
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -3757,7 +3769,7 @@
       <c r="A58" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="27">
         <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -3768,7 +3780,7 @@
       <c r="A59" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="27">
         <v>3</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -3779,7 +3791,7 @@
       <c r="A60" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="27">
         <v>999</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -3790,7 +3802,7 @@
       <c r="A61" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="27">
         <v>0</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -3801,7 +3813,7 @@
       <c r="A62" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="27">
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -3812,7 +3824,7 @@
       <c r="A63" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="27">
         <v>888</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -3823,7 +3835,7 @@
       <c r="A64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="27">
         <v>999</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -3834,7 +3846,7 @@
       <c r="A65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="27">
         <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -3845,7 +3857,7 @@
       <c r="A66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="27">
         <v>0</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -3856,7 +3868,7 @@
       <c r="A67" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="27">
         <v>888</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -3867,7 +3879,7 @@
       <c r="A68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="27">
         <v>999</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -3878,7 +3890,7 @@
       <c r="A69" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="27">
         <v>-777</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -3889,7 +3901,7 @@
       <c r="A70" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="27">
         <v>-888</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -3900,7 +3912,7 @@
       <c r="A71" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="27">
         <v>-999</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -3911,7 +3923,7 @@
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="27">
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -3922,7 +3934,7 @@
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="27">
         <v>0</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -3933,7 +3945,7 @@
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="27">
         <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -3944,7 +3956,7 @@
       <c r="A75" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="27">
         <v>999</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -3955,7 +3967,7 @@
       <c r="A76" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="27">
         <v>1</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -3966,7 +3978,7 @@
       <c r="A77" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="27">
         <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -3977,7 +3989,7 @@
       <c r="A78" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="27">
         <v>3</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -3988,7 +4000,7 @@
       <c r="A79" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="27">
         <v>1</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -3999,7 +4011,7 @@
       <c r="A80" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="27">
         <v>2</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -4010,7 +4022,7 @@
       <c r="A81" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="27">
         <v>3</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -4021,7 +4033,7 @@
       <c r="A82" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="27">
         <v>4</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -4032,7 +4044,7 @@
       <c r="A83" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="27">
         <v>5</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -4043,7 +4055,7 @@
       <c r="A84" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="27">
         <v>6</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -4054,7 +4066,7 @@
       <c r="A85" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="27">
         <v>888</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -4065,7 +4077,7 @@
       <c r="A86" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="27">
         <v>0</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -4076,7 +4088,7 @@
       <c r="A87" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="27">
         <v>1</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -4087,7 +4099,7 @@
       <c r="A88" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="27">
         <v>1</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -4098,7 +4110,7 @@
       <c r="A89" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="27">
         <v>1</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -4109,7 +4121,7 @@
       <c r="A90" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="27">
         <v>0</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -4120,7 +4132,7 @@
       <c r="A91" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="27">
         <v>1</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -4131,7 +4143,7 @@
       <c r="A92" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="27">
         <v>0</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -4142,7 +4154,7 @@
       <c r="A93" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="27">
         <v>1</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -4153,7 +4165,7 @@
       <c r="A94" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="27">
         <v>0</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -4164,7 +4176,7 @@
       <c r="A95" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="27">
         <v>2</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -4172,840 +4184,852 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="30" customHeight="1">
-      <c r="A96" s="26" t="s">
+      <c r="A96" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B96" s="26">
+      <c r="B96" s="29">
         <v>0</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
     </row>
     <row r="97" spans="1:6" ht="30" customHeight="1">
-      <c r="A97" s="26" t="s">
+      <c r="A97" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B97" s="26">
+      <c r="B97" s="29">
         <v>1</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="C97" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
     </row>
     <row r="98" spans="1:6" ht="30" customHeight="1">
-      <c r="A98" s="26" t="s">
+      <c r="A98" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B98" s="26">
+      <c r="B98" s="29">
         <v>2</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C98" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
     </row>
     <row r="99" spans="1:6" ht="30" customHeight="1">
-      <c r="A99" s="26" t="s">
+      <c r="A99" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B99" s="26">
+      <c r="B99" s="29">
         <v>3</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="C99" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="30">
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="30">
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
     </row>
     <row r="102" spans="1:6" ht="30" customHeight="1">
-      <c r="A102" s="26" t="s">
+      <c r="A102" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B102" s="26">
+      <c r="B102" s="29">
         <v>1</v>
       </c>
-      <c r="C102" s="26" t="s">
+      <c r="C102" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
     </row>
     <row r="103" spans="1:6" ht="30" customHeight="1">
-      <c r="A103" s="26" t="s">
+      <c r="A103" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B103" s="26">
+      <c r="B103" s="29">
         <v>0</v>
       </c>
-      <c r="C103" s="26" t="s">
+      <c r="C103" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1">
-      <c r="A104" s="26" t="s">
+      <c r="A104" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B104" s="26">
+      <c r="B104" s="29">
         <v>666</v>
       </c>
-      <c r="C104" s="26" t="s">
+      <c r="C104" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
     </row>
     <row r="105" spans="1:6" ht="30" customHeight="1">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B105" s="26">
+      <c r="B105" s="29">
         <v>888</v>
       </c>
-      <c r="C105" s="26" t="s">
+      <c r="C105" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
     </row>
     <row r="106" spans="1:6" ht="30" customHeight="1">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B106" s="26">
+      <c r="B106" s="29">
         <v>999</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C106" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="B107" s="27"/>
     </row>
     <row r="108" spans="1:6" ht="30" customHeight="1">
-      <c r="A108" s="26" t="s">
+      <c r="A108" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B108" s="26">
+      <c r="B108" s="29">
         <v>1</v>
       </c>
-      <c r="C108" s="26" t="s">
+      <c r="C108" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26"/>
     </row>
     <row r="109" spans="1:6" ht="30" customHeight="1">
-      <c r="A109" s="26" t="s">
+      <c r="A109" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B109" s="26">
+      <c r="B109" s="29">
         <v>0</v>
       </c>
-      <c r="C109" s="26" t="s">
+      <c r="C109" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
     </row>
     <row r="110" spans="1:6" ht="30" customHeight="1">
-      <c r="A110" s="26" t="s">
+      <c r="A110" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B110" s="26">
+      <c r="B110" s="29">
         <v>666</v>
       </c>
-      <c r="C110" s="26" t="s">
+      <c r="C110" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
     </row>
     <row r="111" spans="1:6" ht="30" customHeight="1">
-      <c r="A111" s="26" t="s">
+      <c r="A111" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B111" s="26">
+      <c r="B111" s="29">
         <v>888</v>
       </c>
-      <c r="C111" s="26" t="s">
+      <c r="C111" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
     </row>
     <row r="112" spans="1:6" ht="30" customHeight="1">
-      <c r="A112" s="26" t="s">
+      <c r="A112" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B112" s="26">
+      <c r="B112" s="29">
         <v>999</v>
       </c>
-      <c r="C112" s="26" t="s">
+      <c r="C112" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
     </row>
     <row r="113" spans="1:6" ht="30" customHeight="1">
-      <c r="A113" s="26"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
+      <c r="A113" s="25"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
     </row>
     <row r="114" spans="1:6" ht="30" customHeight="1">
-      <c r="A114" s="26" t="s">
+      <c r="A114" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B114" s="26">
+      <c r="B114" s="29">
         <v>1</v>
       </c>
-      <c r="C114" s="26" t="s">
+      <c r="C114" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
     </row>
     <row r="115" spans="1:6" ht="30" customHeight="1">
-      <c r="A115" s="26" t="s">
+      <c r="A115" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B115" s="26">
+      <c r="B115" s="29">
         <v>2</v>
       </c>
-      <c r="C115" s="26" t="s">
+      <c r="C115" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26"/>
     </row>
     <row r="116" spans="1:6" ht="30" customHeight="1">
-      <c r="A116" s="26" t="s">
+      <c r="A116" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B116" s="26">
+      <c r="B116" s="29">
         <v>777</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="C116" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26"/>
     </row>
     <row r="117" spans="1:6" ht="30" customHeight="1">
-      <c r="A117" s="26" t="s">
+      <c r="A117" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B117" s="26">
+      <c r="B117" s="29">
         <v>888</v>
       </c>
-      <c r="C117" s="26" t="s">
+      <c r="C117" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
     </row>
     <row r="118" spans="1:6" ht="30" customHeight="1">
-      <c r="A118" s="26" t="s">
+      <c r="A118" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B118" s="26">
+      <c r="B118" s="29">
         <v>999</v>
       </c>
-      <c r="C118" s="26" t="s">
+      <c r="C118" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="26"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="B119" s="27"/>
     </row>
     <row r="120" spans="1:6" ht="30" customHeight="1">
-      <c r="A120" s="26" t="s">
+      <c r="A120" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B120" s="26">
+      <c r="B120" s="29">
         <v>1</v>
       </c>
-      <c r="C120" s="26" t="s">
+      <c r="C120" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="26"/>
     </row>
     <row r="121" spans="1:6" ht="30" customHeight="1">
-      <c r="A121" s="26" t="s">
+      <c r="A121" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B121" s="26">
+      <c r="B121" s="29">
         <v>2</v>
       </c>
-      <c r="C121" s="26" t="s">
+      <c r="C121" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="26"/>
     </row>
     <row r="122" spans="1:6" ht="30" customHeight="1">
-      <c r="A122" s="26" t="s">
+      <c r="A122" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B122" s="26">
+      <c r="B122" s="29">
         <v>3</v>
       </c>
-      <c r="C122" s="26" t="s">
+      <c r="C122" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="26"/>
     </row>
     <row r="123" spans="1:6" ht="30" customHeight="1">
-      <c r="A123" s="26" t="s">
+      <c r="A123" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B123" s="26">
+      <c r="B123" s="29">
         <v>888</v>
       </c>
-      <c r="C123" s="26" t="s">
+      <c r="C123" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="26"/>
     </row>
     <row r="124" spans="1:6" ht="30" customHeight="1">
-      <c r="A124" s="26" t="s">
+      <c r="A124" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B124" s="26">
+      <c r="B124" s="29">
         <v>999</v>
       </c>
-      <c r="C124" s="26" t="s">
+      <c r="C124" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
     </row>
     <row r="125" spans="1:6" ht="30" customHeight="1">
-      <c r="A125" s="26"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
     </row>
     <row r="126" spans="1:6" ht="30" customHeight="1">
-      <c r="A126" s="26" t="s">
+      <c r="A126" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B126" s="26">
+      <c r="B126" s="29">
         <v>1</v>
       </c>
-      <c r="C126" s="26" t="s">
+      <c r="C126" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="26"/>
     </row>
     <row r="127" spans="1:6" ht="30" customHeight="1">
-      <c r="A127" s="26" t="s">
+      <c r="A127" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B127" s="26">
+      <c r="B127" s="29">
         <v>2</v>
       </c>
-      <c r="C127" s="26" t="s">
+      <c r="C127" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="26"/>
     </row>
     <row r="128" spans="1:6" ht="30" customHeight="1">
-      <c r="A128" s="26" t="s">
+      <c r="A128" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B128" s="26">
+      <c r="B128" s="29">
         <v>3</v>
       </c>
-      <c r="C128" s="26" t="s">
+      <c r="C128" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="26"/>
     </row>
     <row r="129" spans="1:6" ht="30" customHeight="1">
-      <c r="A129" s="26" t="s">
+      <c r="A129" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B129" s="26">
+      <c r="B129" s="29">
         <v>4</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
     </row>
     <row r="130" spans="1:6" ht="30" customHeight="1">
-      <c r="A130" s="26" t="s">
+      <c r="A130" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B130" s="26">
+      <c r="B130" s="29">
         <v>5</v>
       </c>
-      <c r="C130" s="26" t="s">
+      <c r="C130" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="D130" s="27"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26"/>
     </row>
     <row r="131" spans="1:6" ht="30" customHeight="1">
-      <c r="A131" s="26" t="s">
+      <c r="A131" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B131" s="26">
+      <c r="B131" s="29">
         <v>6</v>
       </c>
-      <c r="C131" s="26" t="s">
+      <c r="C131" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
     </row>
     <row r="132" spans="1:6" ht="30" customHeight="1">
-      <c r="A132" s="26" t="s">
+      <c r="A132" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B132" s="26">
+      <c r="B132" s="29">
         <v>888</v>
       </c>
-      <c r="C132" s="26" t="s">
+      <c r="C132" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="26"/>
     </row>
     <row r="133" spans="1:6" ht="30" customHeight="1">
-      <c r="A133" s="26"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
+      <c r="A133" s="25"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="26"/>
     </row>
     <row r="134" spans="1:6" ht="30" customHeight="1">
-      <c r="A134" s="27" t="s">
+      <c r="A134" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B134" s="26">
+      <c r="B134" s="29">
         <v>1</v>
       </c>
-      <c r="C134" s="26" t="s">
+      <c r="C134" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="26"/>
     </row>
     <row r="135" spans="1:6" ht="30" customHeight="1">
-      <c r="A135" s="27" t="s">
+      <c r="A135" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B135" s="26">
+      <c r="B135" s="29">
         <v>2</v>
       </c>
-      <c r="C135" s="26" t="s">
+      <c r="C135" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="27"/>
+      <c r="D135" s="26"/>
+      <c r="E135" s="26"/>
+      <c r="F135" s="26"/>
     </row>
     <row r="136" spans="1:6" ht="30" customHeight="1">
-      <c r="A136" s="27" t="s">
+      <c r="A136" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B136" s="26">
+      <c r="B136" s="29">
         <v>3</v>
       </c>
-      <c r="C136" s="26" t="s">
+      <c r="C136" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="27"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="26"/>
     </row>
     <row r="137" spans="1:6" ht="30" customHeight="1">
-      <c r="A137" s="27" t="s">
+      <c r="A137" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B137" s="26">
+      <c r="B137" s="29">
         <v>4</v>
       </c>
-      <c r="C137" s="26" t="s">
+      <c r="C137" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="26"/>
     </row>
     <row r="138" spans="1:6" ht="30" customHeight="1">
-      <c r="A138" s="27" t="s">
+      <c r="A138" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B138" s="26">
+      <c r="B138" s="29">
         <v>5</v>
       </c>
-      <c r="C138" s="26" t="s">
+      <c r="C138" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
+      <c r="D138" s="26"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="26"/>
     </row>
     <row r="139" spans="1:6" ht="30" customHeight="1">
-      <c r="A139" s="27" t="s">
+      <c r="A139" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B139" s="26">
+      <c r="B139" s="29">
         <v>6</v>
       </c>
-      <c r="C139" s="26" t="s">
+      <c r="C139" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="26"/>
     </row>
     <row r="140" spans="1:6" ht="30" customHeight="1">
-      <c r="A140" s="27" t="s">
+      <c r="A140" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B140" s="26">
+      <c r="B140" s="29">
         <v>7</v>
       </c>
-      <c r="C140" s="26" t="s">
+      <c r="C140" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="27"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="26"/>
     </row>
     <row r="141" spans="1:6" ht="30" customHeight="1">
-      <c r="A141" s="27" t="s">
+      <c r="A141" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B141" s="26">
+      <c r="B141" s="29">
         <v>8</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="26"/>
     </row>
     <row r="142" spans="1:6" ht="30" customHeight="1">
-      <c r="A142" s="27" t="s">
+      <c r="A142" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B142" s="26">
+      <c r="B142" s="29">
         <v>9</v>
       </c>
-      <c r="C142" s="26" t="s">
+      <c r="C142" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
-      <c r="F142" s="27"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
+      <c r="F142" s="26"/>
     </row>
     <row r="143" spans="1:6" ht="30" customHeight="1">
-      <c r="A143" s="27" t="s">
+      <c r="A143" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B143" s="26">
+      <c r="B143" s="29">
         <v>10</v>
       </c>
-      <c r="C143" s="26" t="s">
+      <c r="C143" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="26"/>
+      <c r="F143" s="26"/>
     </row>
     <row r="144" spans="1:6" ht="30" customHeight="1">
-      <c r="A144" s="27" t="s">
+      <c r="A144" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B144" s="26">
+      <c r="B144" s="29">
         <v>11</v>
       </c>
-      <c r="C144" s="26" t="s">
+      <c r="C144" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26"/>
+      <c r="F144" s="26"/>
     </row>
     <row r="145" spans="1:6" ht="30" customHeight="1">
-      <c r="A145" s="27" t="s">
+      <c r="A145" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B145" s="26">
+      <c r="B145" s="29">
         <v>12</v>
       </c>
-      <c r="C145" s="26" t="s">
+      <c r="C145" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="27"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="26"/>
     </row>
     <row r="146" spans="1:6" ht="30" customHeight="1">
-      <c r="A146" s="27" t="s">
+      <c r="A146" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B146" s="26">
+      <c r="B146" s="29">
         <v>13</v>
       </c>
-      <c r="C146" s="26" t="s">
+      <c r="C146" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="D146" s="27"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="27"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="26"/>
     </row>
     <row r="147" spans="1:6" ht="30" customHeight="1">
-      <c r="A147" s="27" t="s">
+      <c r="A147" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B147" s="26">
+      <c r="B147" s="29">
         <v>14</v>
       </c>
-      <c r="C147" s="26" t="s">
+      <c r="C147" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D147" s="27"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="27"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="26"/>
     </row>
     <row r="148" spans="1:6" ht="30" customHeight="1">
-      <c r="A148" s="27" t="s">
+      <c r="A148" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B148" s="26">
+      <c r="B148" s="29">
         <v>15</v>
       </c>
-      <c r="C148" s="26" t="s">
+      <c r="C148" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="27"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="26"/>
     </row>
     <row r="149" spans="1:6" ht="30" customHeight="1">
-      <c r="A149" s="27" t="s">
+      <c r="A149" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B149" s="26">
+      <c r="B149" s="29">
         <v>16</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
+      <c r="F149" s="26"/>
     </row>
     <row r="150" spans="1:6" ht="30" customHeight="1">
-      <c r="A150" s="27" t="s">
+      <c r="A150" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B150" s="26">
+      <c r="B150" s="29">
         <v>888</v>
       </c>
-      <c r="C150" s="26" t="s">
+      <c r="C150" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="27"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="26"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="B151" s="27"/>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="27">
         <v>1</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D152" s="26"/>
-      <c r="E152" s="26"/>
-      <c r="F152" s="26"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="25"/>
+      <c r="F152" s="25"/>
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="27">
         <v>0</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D153" s="26"/>
-      <c r="E153" s="26"/>
-      <c r="F153" s="26"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="25"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="B154" s="27"/>
     </row>
     <row r="155" spans="1:6" ht="15" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="27">
         <v>1</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
-      <c r="F155" s="26"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="25"/>
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="27">
         <v>0</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D156" s="26"/>
-      <c r="E156" s="26"/>
-      <c r="F156" s="26"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="25"/>
     </row>
     <row r="157" spans="1:6" ht="15" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="27">
         <v>3</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
-      <c r="F157" s="26"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
+      <c r="F157" s="25"/>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="27">
         <v>4</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="26"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25"/>
+      <c r="F158" s="25"/>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1">
-      <c r="A159" s="26" t="s">
+      <c r="A159" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="B159" s="26">
+      <c r="B159" s="29">
         <v>1</v>
       </c>
-      <c r="C159" s="26" t="s">
+      <c r="C159" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="D159" s="26"/>
-      <c r="E159" s="26"/>
-      <c r="F159" s="26"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="25"/>
+      <c r="F159" s="25"/>
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1">
-      <c r="A160" s="26" t="s">
+      <c r="A160" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="B160" s="26">
+      <c r="B160" s="29">
         <v>888</v>
       </c>
-      <c r="C160" s="26" t="s">
+      <c r="C160" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D160" s="26"/>
-      <c r="E160" s="26"/>
-      <c r="F160" s="26"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="25"/>
+      <c r="F160" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5033,7 +5057,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B1" t="s">
@@ -5044,7 +5068,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B2" t="s">

--- a/app/tables/maleClients/forms/partnerAllFields/partnerAllFields.xlsx
+++ b/app/tables/maleClients/forms/partnerAllFields/partnerAllFields.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="35600" yWindow="2380" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -996,8 +996,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="245">
+  <cellStyleXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1334,7 +1344,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="245">
+  <cellStyles count="255">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1457,6 +1467,11 @@
     <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1579,6 +1594,11 @@
     <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1915,11 +1935,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33:XFD66"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2271,8 +2291,8 @@
       <c r="B23" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>71</v>
+      <c r="C23" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>162</v>
@@ -3126,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
